--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3073647.670749103</v>
+        <v>3071760.089232702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>330.6679898432817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>195.2162320498006</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>310.2076895021017</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>85.05437413388437</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>106.283557842035</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>277.0465824170321</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>155.590554746117</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>78.67531269948023</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
@@ -2968,7 +2968,7 @@
         <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>80.87481874710059</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
         <v>959.5129866402885</v>
@@ -4331,7 +4331,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.4755035807</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>175.5713008203286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>175.5713008203286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1413.148854308789</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.883155702039</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>669.0949031037944</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.80799051105</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130037</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5030,16 +5030,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514093</v>
@@ -5072,13 +5072,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5121,25 +5121,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,28 +5215,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028587</v>
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947358</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947358</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947358</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011508</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>709.451253618899</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947358</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028587</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011508</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>536.7509009095821</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726215</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5759,43 +5759,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829218</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>844.0280401273988</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>564.1830073829218</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829218</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829218</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>130.9054447954966</v>
+      </c>
+      <c r="C25" t="n">
+        <v>130.9054447954966</v>
+      </c>
+      <c r="D25" t="n">
+        <v>130.9054447954966</v>
+      </c>
+      <c r="E25" t="n">
+        <v>130.9054447954966</v>
+      </c>
+      <c r="F25" t="n">
+        <v>130.9054447954966</v>
+      </c>
+      <c r="G25" t="n">
+        <v>130.9054447954966</v>
+      </c>
+      <c r="H25" t="n">
         <v>97.21709146028587</v>
       </c>
-      <c r="C25" t="n">
+      <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
-      <c r="D25" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="E25" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="F25" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="G25" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="H25" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="I25" t="n">
-        <v>97.21709146028586</v>
-      </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488392</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>644.1080300429524</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429524</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542198</v>
+        <v>695.101093324843</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542198</v>
+        <v>581.925775678307</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264619</v>
+        <v>487.5700015473421</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>395.4177732463198</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,16 +6637,16 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167071</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818945</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030886</v>
+        <v>820.9886928737118</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,22 +6701,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,37 +7184,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7570,13 +7570,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970602</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>87.16935584025396</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.4091825776757</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>133.5302792182104</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>115.2640032163543</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.47641591955886</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656772</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>70.11910064292015</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.73690369017499</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>82.50657797643706</v>
       </c>
     </row>
     <row r="32">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803339</v>
-      </c>
       <c r="G2" t="n">
-        <v>625646.4955803335</v>
+        <v>625646.4955803336</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524313</v>
+        <v>650915.4197524318</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914271</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007446</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007456</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007455</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007457</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007458</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007436</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007545</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020404</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,19 +26482,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024482</v>
+        <v>-163910.5901024486</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120965</v>
+        <v>426057.2891120964</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.289112096</v>
+        <v>426057.2891120961</v>
       </c>
       <c r="E6" t="n">
-        <v>582.401498714069</v>
+        <v>484.9423727419485</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756098</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756092</v>
+        <v>525644.9788496374</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756101</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.4379756099</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830167</v>
+        <v>349221.7596570448</v>
       </c>
       <c r="K6" t="n">
-        <v>484043.2517491588</v>
+        <v>484024.758011225</v>
       </c>
       <c r="L6" t="n">
-        <v>518439.8843732062</v>
+        <v>518439.8843732069</v>
       </c>
       <c r="M6" t="n">
-        <v>393981.7759402356</v>
+        <v>393981.7759402366</v>
       </c>
       <c r="N6" t="n">
-        <v>528782.7911740738</v>
+        <v>528782.7911740737</v>
       </c>
       <c r="O6" t="n">
-        <v>528782.7911740736</v>
+        <v>528782.7911740737</v>
       </c>
       <c r="P6" t="n">
         <v>484620.1858712281</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,31 +26750,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.56994881277188</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.00901221296672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>211.6598136919108</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874015</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>39.03327921531132</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106055</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076452</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M20" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>294.2627707717787</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>621.6037559756885</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
